--- a/AAII_Financials/Quarterly/PMPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PMPG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>PMPG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,86 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +778,26 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +831,26 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +884,26 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +917,14 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +958,26 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,43 +1011,79 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1117,26 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,43 +1147,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,34 +1215,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1274,14 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1112,8 +1315,26 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1132,23 +1353,41 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,43 +1421,79 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1527,26 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1580,132 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1739,26 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1792,26 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1845,26 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1898,26 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,43 +1951,79 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +2057,137 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +2201,14 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +2222,14 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1742,8 +2263,26 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +2316,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +2369,26 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +2422,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,8 +2475,26 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,8 +2528,26 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2581,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1987,8 +2634,26 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2687,26 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2740,26 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2793,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2846,26 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,8 +2899,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2197,8 +2952,26 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2985,14 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +3006,14 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2236,22 +3021,22 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2260,10 +3045,28 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2271,25 +3074,25 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
@@ -2297,8 +3100,26 @@
       <c r="M58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>300</v>
+      </c>
+      <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2332,8 +3153,26 @@
       <c r="M59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>400</v>
+      </c>
+      <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+      <c r="R59" s="3">
+        <v>400</v>
+      </c>
+      <c r="S59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2341,34 +3180,52 @@
         <v>1200</v>
       </c>
       <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>900</v>
       </c>
       <c r="L60" s="3">
         <v>900</v>
       </c>
       <c r="M60" s="3">
+        <v>900</v>
+      </c>
+      <c r="N60" s="3">
+        <v>900</v>
+      </c>
+      <c r="O60" s="3">
+        <v>900</v>
+      </c>
+      <c r="P60" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>900</v>
+      </c>
+      <c r="R60" s="3">
+        <v>900</v>
+      </c>
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,31 +3259,49 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -2437,8 +3312,26 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +3365,26 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +3418,26 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,8 +3471,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2551,34 +3498,52 @@
         <v>1200</v>
       </c>
       <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>900</v>
       </c>
       <c r="L66" s="3">
         <v>900</v>
       </c>
       <c r="M66" s="3">
+        <v>900</v>
+      </c>
+      <c r="N66" s="3">
+        <v>900</v>
+      </c>
+      <c r="O66" s="3">
+        <v>900</v>
+      </c>
+      <c r="P66" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>900</v>
+      </c>
+      <c r="R66" s="3">
+        <v>900</v>
+      </c>
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +3557,14 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +3598,26 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +3651,26 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3704,26 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3757,79 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-7300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="L72" s="3">
         <v>-7200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="M72" s="3">
         <v>-7200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="N72" s="3">
         <v>-7200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="O72" s="3">
         <v>-6200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="P72" s="3">
         <v>-6100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="Q72" s="3">
         <v>-6100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="R72" s="3">
         <v>-6100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="S72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3863,26 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3916,26 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,8 +3969,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2881,34 +3996,52 @@
         <v>-1200</v>
       </c>
       <c r="E76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-900</v>
       </c>
       <c r="L76" s="3">
         <v>-900</v>
       </c>
       <c r="M76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +4075,137 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +4219,14 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +4260,26 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +4313,26 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +4366,26 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +4419,26 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +4472,26 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +4525,79 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +4611,14 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +4652,26 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +4705,26 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +4758,26 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +4811,26 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +4844,14 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +4885,26 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +4938,26 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4991,26 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +5044,79 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +5150,26 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3690,6 +5201,24 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PMPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PMPG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>PMPG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,93 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +803,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,13 +1062,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>-1200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1046,11 +1085,11 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1065,14 +1104,14 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1080,10 +1119,16 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,16 +1204,18 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1177,26 +1230,26 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1204,10 +1257,16 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1230,26 +1289,26 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1257,10 +1316,16 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1333,8 +1400,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1371,11 +1444,11 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
@@ -1384,10 +1457,16 @@
         <v>0</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,16 +1518,22 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1463,26 +1548,26 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1490,10 +1575,16 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,16 +1695,22 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1622,26 +1725,26 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1649,18 +1752,24 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1675,26 +1784,26 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1702,10 +1811,16 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,7 +2064,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1969,16 +2108,22 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1993,26 +2138,26 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2020,10 +2165,16 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,16 +2226,22 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -2099,26 +2256,26 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2126,68 +2283,80 @@
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2399,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2239,20 +2412,20 @@
       <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2281,8 +2454,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2513,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2631,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2493,8 +2690,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,31 +2749,37 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2599,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2652,8 +2867,14 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,13 +3162,19 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2970,8 +3221,14 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,13 +3271,15 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -3039,10 +3300,10 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3063,15 +3324,21 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -3092,13 +3359,13 @@
         <v>500</v>
       </c>
       <c r="K58" s="3">
+        <v>500</v>
+      </c>
+      <c r="L58" s="3">
+        <v>500</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
@@ -3118,16 +3385,22 @@
       <c r="S58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+      <c r="U58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
@@ -3171,16 +3444,22 @@
       <c r="S59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>400</v>
+      </c>
+      <c r="U59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="F60" s="3">
         <v>1200</v>
@@ -3198,13 +3477,13 @@
         <v>1200</v>
       </c>
       <c r="K60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M60" s="3">
         <v>1100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>900</v>
       </c>
       <c r="N60" s="3">
         <v>900</v>
@@ -3222,10 +3501,16 @@
         <v>900</v>
       </c>
       <c r="S60" s="3">
+        <v>900</v>
+      </c>
+      <c r="T60" s="3">
+        <v>900</v>
+      </c>
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3303,11 +3594,11 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3330,8 +3621,14 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,16 +3798,22 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="F66" s="3">
         <v>1200</v>
@@ -3516,13 +3831,13 @@
         <v>1200</v>
       </c>
       <c r="K66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M66" s="3">
         <v>1100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>900</v>
       </c>
       <c r="N66" s="3">
         <v>900</v>
@@ -3540,10 +3855,16 @@
         <v>900</v>
       </c>
       <c r="S66" s="3">
+        <v>900</v>
+      </c>
+      <c r="T66" s="3">
+        <v>900</v>
+      </c>
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,19 +4116,25 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7500</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-7400</v>
       </c>
       <c r="G72" s="3">
         <v>-7400</v>
@@ -3802,25 +4149,25 @@
         <v>-7400</v>
       </c>
       <c r="K72" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="M72" s="3">
         <v>-7300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-7200</v>
       </c>
       <c r="N72" s="3">
         <v>-7200</v>
       </c>
       <c r="O72" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-6200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-6100</v>
       </c>
       <c r="R72" s="3">
         <v>-6100</v>
@@ -3828,8 +4175,14 @@
       <c r="S72" s="3">
         <v>-6100</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-6100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,16 +4352,22 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1200</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="F76" s="3">
         <v>-1200</v>
@@ -4014,13 +4385,13 @@
         <v>-1200</v>
       </c>
       <c r="K76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-900</v>
       </c>
       <c r="N76" s="3">
         <v>-900</v>
@@ -4038,10 +4409,16 @@
         <v>-900</v>
       </c>
       <c r="S76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,74 +4470,86 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -4175,26 +4564,26 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -4202,10 +4591,16 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,13 +4970,19 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4567,17 +5000,17 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -4596,8 +5029,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,13 +5229,19 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4829,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,13 +5547,19 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5086,17 +5577,17 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5115,8 +5606,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,8 +5665,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5219,6 +5722,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PMPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PMPG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>PMPG</t>
   </si>
@@ -1212,7 +1212,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>-1100</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
@@ -1529,8 +1529,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>1100</v>
       </c>
       <c r="E23" s="3">
         <v>-700</v>
@@ -1707,7 +1707,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E26" s="3">
         <v>-700</v>
@@ -1766,7 +1766,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E27" s="3">
         <v>-700</v>
@@ -2120,7 +2120,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E33" s="3">
         <v>-700</v>
@@ -2238,7 +2238,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E35" s="3">
         <v>-700</v>
@@ -2707,20 +2707,20 @@
       <c r="E46" s="3">
         <v>0</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E81" s="3">
         <v>-700</v>

--- a/AAII_Financials/Quarterly/PMPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PMPG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>PMPG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,101 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +817,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +882,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +947,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +976,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1037,14 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,20 +1102,26 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1091,11 +1131,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1110,14 +1150,14 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1125,10 +1165,16 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1232,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,23 +1258,25 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>-1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1236,26 +1290,26 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1263,10 +1317,16 @@
         <v>0</v>
       </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,14 +1334,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1295,26 +1355,26 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1322,10 +1382,16 @@
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1413,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,13 +1424,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-200</v>
+        <v>1100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1406,8 +1474,14 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1450,11 +1524,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
@@ -1463,10 +1537,16 @@
         <v>0</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,22 +1604,28 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
-        <v>-700</v>
-      </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1554,26 +1640,26 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1581,10 +1667,16 @@
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1734,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,22 +1799,28 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
-        <v>-700</v>
-      </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1731,26 +1835,26 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -1758,24 +1862,30 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-700</v>
-      </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1790,26 +1900,26 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -1817,10 +1927,16 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1994,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2059,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2189,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,13 +2204,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>200</v>
+        <v>-1100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2114,22 +2254,28 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3">
-        <v>-700</v>
-      </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -2144,26 +2290,26 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2171,10 +2317,16 @@
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,22 +2384,28 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3">
-        <v>-700</v>
-      </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -2262,26 +2420,26 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2289,74 +2447,86 @@
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2573,10 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2412,11 +2586,11 @@
       <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>4</v>
@@ -2427,11 +2601,11 @@
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2460,8 +2634,14 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2699,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2764,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2829,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2894,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2707,11 +2911,11 @@
       <c r="E46" s="3">
         <v>0</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>4</v>
@@ -2722,11 +2926,11 @@
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2755,20 +2959,26 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>300</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2781,11 +2991,11 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2814,8 +3024,14 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +3089,14 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3154,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3284,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3349,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,20 +3414,26 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -3227,8 +3479,14 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3533,10 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3282,10 +3544,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -3306,10 +3568,10 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -3330,21 +3592,27 @@
         <v>200</v>
       </c>
       <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+      <c r="W57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
       </c>
       <c r="F58" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
@@ -3365,13 +3633,13 @@
         <v>500</v>
       </c>
       <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3">
+        <v>500</v>
+      </c>
+      <c r="O58" s="3">
         <v>400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
@@ -3391,22 +3659,28 @@
       <c r="U58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>300</v>
+      </c>
+      <c r="W58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="G59" s="3">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
@@ -3450,22 +3724,28 @@
       <c r="U59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>400</v>
+      </c>
+      <c r="W59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="F60" s="3">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="G60" s="3">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="H60" s="3">
         <v>1200</v>
@@ -3483,13 +3763,13 @@
         <v>1200</v>
       </c>
       <c r="M60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O60" s="3">
         <v>1100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>900</v>
-      </c>
-      <c r="O60" s="3">
-        <v>900</v>
       </c>
       <c r="P60" s="3">
         <v>900</v>
@@ -3507,10 +3787,16 @@
         <v>900</v>
       </c>
       <c r="U60" s="3">
+        <v>900</v>
+      </c>
+      <c r="V60" s="3">
+        <v>900</v>
+      </c>
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3854,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3600,11 +3892,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3627,8 +3919,14 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,22 +4114,28 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="F66" s="3">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="G66" s="3">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="H66" s="3">
         <v>1200</v>
@@ -3837,13 +4153,13 @@
         <v>1200</v>
       </c>
       <c r="M66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O66" s="3">
         <v>1100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>900</v>
       </c>
       <c r="P66" s="3">
         <v>900</v>
@@ -3861,10 +4177,16 @@
         <v>900</v>
       </c>
       <c r="U66" s="3">
+        <v>900</v>
+      </c>
+      <c r="V66" s="3">
+        <v>900</v>
+      </c>
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,25 +4464,31 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7100</v>
+        <v>-7500</v>
       </c>
       <c r="E72" s="3">
-        <v>-8200</v>
+        <v>-7500</v>
       </c>
       <c r="F72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="H72" s="3">
         <v>-7500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-7400</v>
       </c>
       <c r="I72" s="3">
         <v>-7400</v>
@@ -4155,25 +4503,25 @@
         <v>-7400</v>
       </c>
       <c r="M72" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="O72" s="3">
         <v>-7300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-7200</v>
       </c>
       <c r="P72" s="3">
         <v>-7200</v>
       </c>
       <c r="Q72" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="S72" s="3">
         <v>-6200</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-6100</v>
       </c>
       <c r="T72" s="3">
         <v>-6100</v>
@@ -4181,8 +4529,14 @@
       <c r="U72" s="3">
         <v>-6100</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="W72" s="3">
+        <v>-6100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,22 +4724,28 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="E76" s="3">
-        <v>-1400</v>
+        <v>-700</v>
       </c>
       <c r="F76" s="3">
-        <v>-1200</v>
+        <v>-1800</v>
       </c>
       <c r="G76" s="3">
-        <v>-1200</v>
+        <v>-1900</v>
       </c>
       <c r="H76" s="3">
         <v>-1200</v>
@@ -4391,13 +4763,13 @@
         <v>-1200</v>
       </c>
       <c r="M76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O76" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-900</v>
       </c>
       <c r="P76" s="3">
         <v>-900</v>
@@ -4415,10 +4787,16 @@
         <v>-900</v>
       </c>
       <c r="U76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="W76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,86 +4854,98 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3">
-        <v>-700</v>
-      </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -4570,26 +4960,26 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -4597,10 +4987,16 @@
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5018,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +5079,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5404,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4988,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -5006,17 +5440,17 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -5035,8 +5469,14 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5498,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5559,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,19 +5689,25 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5294,8 +5754,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5844,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,19 +6039,25 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5583,17 +6075,17 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +6104,14 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +6169,14 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5680,10 +6184,10 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -5728,6 +6232,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>
